--- a/data/scheduling_DNN/predict/0.1/result11.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result11.xlsx
@@ -570,10 +570,10 @@
         <v>0.9172019958496094</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.4904727935791016</v>
       </c>
       <c r="W2" t="n">
-        <v>0.24685138463974</v>
+        <v>0.1820978075265884</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9670209884643555</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.943105161190033</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2146756052970886</v>
+        <v>0.0005719668115489185</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8966019153594971</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.9425269365310669</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1792720854282379</v>
+        <v>0.002109107561409473</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8711698055267334</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.480964183807373</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1703145205974579</v>
+        <v>0.152260422706604</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.9296860694885254</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.8811922669410706</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2106975764036179</v>
+        <v>0.002351648872718215</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8801348209381104</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.5344942212104797</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2401363402605057</v>
+        <v>0.1194674223661423</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8663709163665771</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.4682955145835876</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1001112535595894</v>
+        <v>0.1584640294313431</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8708961009979248</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.5333592295646667</v>
       </c>
       <c r="W9" t="n">
-        <v>0.189112201333046</v>
+        <v>0.1139311417937279</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.9301478862762451</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.4993657469749451</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2232668995857239</v>
+        <v>0.1855732500553131</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8730678558349609</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.4811042547225952</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03532811999320984</v>
+        <v>0.1536354571580887</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.868628978729248</v>
       </c>
       <c r="V12" t="n">
-        <v>0.471180647611618</v>
+        <v>0.4902863502502441</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1579651832580566</v>
+        <v>0.1431431472301483</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8967218399047852</v>
       </c>
       <c r="V13" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.5021883249282837</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1927066892385483</v>
+        <v>0.1556566953659058</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.922321081161499</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.5332796573638916</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08914520591497421</v>
+        <v>0.1513532251119614</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9125919342041016</v>
       </c>
       <c r="V15" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.4685842990875244</v>
       </c>
       <c r="W15" t="n">
-        <v>0.009188043884932995</v>
+        <v>0.1971427798271179</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8625750541687012</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.8740707039833069</v>
       </c>
       <c r="W16" t="n">
-        <v>0.09623267501592636</v>
+        <v>0.0001321499585174024</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8775389194488525</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.942973792552948</v>
       </c>
       <c r="W17" t="n">
-        <v>0.06338844448328018</v>
+        <v>0.004281722474843264</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8997399806976318</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4671509265899658</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1790981292724609</v>
+        <v>0.1871332824230194</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8566570281982422</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.8845321536064148</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1717582643032074</v>
+        <v>0.0007770226220600307</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8679940700531006</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.9027894735336304</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07133717834949493</v>
+        <v>0.001210720045492053</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8837270736694336</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.4771198034286499</v>
       </c>
       <c r="W21" t="n">
-        <v>0.106508195400238</v>
+        <v>0.1653294712305069</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5455570220947266</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.9419143199920654</v>
       </c>
       <c r="W22" t="n">
-        <v>0.006175250746309757</v>
+        <v>0.157099112868309</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5368430614471436</v>
       </c>
       <c r="V23" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.9256506562232971</v>
       </c>
       <c r="W23" t="n">
-        <v>0.07914602756500244</v>
+        <v>0.1511713415384293</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5217809677124023</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.5336095690727234</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01956352218985558</v>
+        <v>0.0001399158063577488</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5438570976257324</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.8762990236282349</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02756514586508274</v>
+        <v>0.1105176359415054</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.541485071182251</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.4902066588401794</v>
       </c>
       <c r="W26" t="n">
-        <v>0.01359045412391424</v>
+        <v>0.002629475668072701</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.555682897567749</v>
       </c>
       <c r="V27" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.5911813378334045</v>
       </c>
       <c r="W27" t="n">
-        <v>0.06578265130519867</v>
+        <v>0.001260139280930161</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5507102012634277</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.5008804798126221</v>
       </c>
       <c r="W28" t="n">
-        <v>0.005858147051185369</v>
+        <v>0.00248300121165812</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.543881893157959</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.4887089729309082</v>
       </c>
       <c r="W29" t="n">
-        <v>0.006007873918861151</v>
+        <v>0.003044051118195057</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5265669822692871</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.4736408591270447</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01697660982608795</v>
+        <v>0.002801174530759454</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5199630260467529</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.8794459700584412</v>
       </c>
       <c r="W31" t="n">
-        <v>0.007008678745478392</v>
+        <v>0.1292279809713364</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5835750102996826</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.479776918888092</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01579611375927925</v>
+        <v>0.01077404338866472</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5159618854522705</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.477674663066864</v>
       </c>
       <c r="W33" t="n">
-        <v>0.01200817711651325</v>
+        <v>0.001465911394916475</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5212440490722656</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.480329155921936</v>
       </c>
       <c r="W34" t="n">
-        <v>0.003220559097826481</v>
+        <v>0.001674028462730348</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5210208892822266</v>
       </c>
       <c r="V35" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.5500311851501465</v>
       </c>
       <c r="W35" t="n">
-        <v>0.009510335512459278</v>
+        <v>0.0008415972697548568</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5151221752166748</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.495130181312561</v>
       </c>
       <c r="W36" t="n">
-        <v>0.001265744096599519</v>
+        <v>0.0003996798186562955</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5562248229980469</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.480475902557373</v>
       </c>
       <c r="W37" t="n">
-        <v>0.008482052013278008</v>
+        <v>0.005737898871302605</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5145518779754639</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.9055235981941223</v>
       </c>
       <c r="W38" t="n">
-        <v>0.001597175374627113</v>
+        <v>0.1528588831424713</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.515545129776001</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4905393123626709</v>
       </c>
       <c r="W39" t="n">
-        <v>0.01177183724939823</v>
+        <v>0.0006252909079194069</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5203421115875244</v>
       </c>
       <c r="V40" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.4891058206558228</v>
       </c>
       <c r="W40" t="n">
-        <v>0.002342910505831242</v>
+        <v>0.0009757058578543365</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5369269847869873</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.4680530428886414</v>
       </c>
       <c r="W41" t="n">
-        <v>0.004425291903316975</v>
+        <v>0.004743619821965694</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4078710079193115</v>
       </c>
       <c r="V42" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.4806864857673645</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1146561205387115</v>
+        <v>0.005302093923091888</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4338419437408447</v>
       </c>
       <c r="V43" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.5179595947265625</v>
       </c>
       <c r="W43" t="n">
-        <v>0.001792308059521019</v>
+        <v>0.007075779139995575</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3882369995117188</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.4813116788864136</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01279650256037712</v>
+        <v>0.008662896230816841</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3885829448699951</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.4885272979736328</v>
       </c>
       <c r="W45" t="n">
-        <v>0.002250671619549394</v>
+        <v>0.009988873265683651</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.384213924407959</v>
       </c>
       <c r="V46" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.5161408185958862</v>
       </c>
       <c r="W46" t="n">
-        <v>0.1926852166652679</v>
+        <v>0.017404705286026</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4122128486633301</v>
       </c>
       <c r="V47" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.5538303852081299</v>
       </c>
       <c r="W47" t="n">
-        <v>0.04637892171740532</v>
+        <v>0.02005552686750889</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4014410972595215</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.4908684492111206</v>
       </c>
       <c r="W48" t="n">
-        <v>0.03072678856551647</v>
+        <v>0.007997251115739346</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4392139911651611</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.5330610275268555</v>
       </c>
       <c r="W49" t="n">
-        <v>0.03311971947550774</v>
+        <v>0.008807266131043434</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3875768184661865</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.4812315702438354</v>
       </c>
       <c r="W50" t="n">
-        <v>0.004362688399851322</v>
+        <v>0.00877121277153492</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.38661789894104</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.8609486818313599</v>
       </c>
       <c r="W51" t="n">
-        <v>0.02773867733776569</v>
+        <v>0.2249896973371506</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3894579410552979</v>
       </c>
       <c r="V52" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.8643285036087036</v>
       </c>
       <c r="W52" t="n">
-        <v>0.01248473394662142</v>
+        <v>0.2255020439624786</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3949971199035645</v>
       </c>
       <c r="V53" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.4991711378097534</v>
       </c>
       <c r="W53" t="n">
-        <v>0.02323045209050179</v>
+        <v>0.01085222605615854</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3877639770507812</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.4678295850753784</v>
       </c>
       <c r="W54" t="n">
-        <v>0.006882427260279655</v>
+        <v>0.006410501431673765</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3896808624267578</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.5335895419120789</v>
       </c>
       <c r="W55" t="n">
-        <v>0.01187389902770519</v>
+        <v>0.02070970833301544</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3895370960235596</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4788532257080078</v>
       </c>
       <c r="W56" t="n">
-        <v>0.02623614110052586</v>
+        <v>0.007977371104061604</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3878960609436035</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.9608086943626404</v>
       </c>
       <c r="W57" t="n">
-        <v>0.005848894361406565</v>
+        <v>0.3282288908958435</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3894259929656982</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.55381840467453</v>
       </c>
       <c r="W58" t="n">
-        <v>0.01302968896925449</v>
+        <v>0.02702486515045166</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3889451026916504</v>
       </c>
       <c r="V59" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.8993603587150574</v>
       </c>
       <c r="W59" t="n">
-        <v>0.004413831979036331</v>
+        <v>0.2605237364768982</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3879158496856689</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.4800831079483032</v>
       </c>
       <c r="W60" t="n">
-        <v>0.05572681128978729</v>
+        <v>0.008494803681969643</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3881330490112305</v>
       </c>
       <c r="V61" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.498789370059967</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01290986593812704</v>
+        <v>0.01224482152611017</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8963310718536377</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.504996657371521</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1542877405881882</v>
+        <v>0.1531426310539246</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8628640174865723</v>
       </c>
       <c r="V63" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.4823151230812073</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1286687552928925</v>
+        <v>0.1448174566030502</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8619980812072754</v>
       </c>
       <c r="V64" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.5515252947807312</v>
       </c>
       <c r="W64" t="n">
-        <v>0.04769887402653694</v>
+        <v>0.09639335423707962</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8643479347229004</v>
       </c>
       <c r="V65" t="n">
-        <v>0.475897878408432</v>
+        <v>0.4981879591941833</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1508934497833252</v>
+        <v>0.1340731233358383</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8725078105926514</v>
       </c>
       <c r="V66" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.4812719225883484</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1380019932985306</v>
+        <v>0.1530655175447464</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8651320934295654</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.9132643342018127</v>
       </c>
       <c r="W67" t="n">
-        <v>0.0979842022061348</v>
+        <v>0.002316712634637952</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9064290523529053</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.9415680170059204</v>
       </c>
       <c r="W68" t="n">
-        <v>0.04725335910916328</v>
+        <v>0.001234746887348592</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8659729957580566</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.4685587286949158</v>
       </c>
       <c r="W69" t="n">
-        <v>0.097761370241642</v>
+        <v>0.1579380929470062</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8771021366119385</v>
       </c>
       <c r="V70" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.4896966814994812</v>
       </c>
       <c r="W70" t="n">
-        <v>0.07415936887264252</v>
+        <v>0.150082990527153</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8640658855438232</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.4772852063179016</v>
       </c>
       <c r="W71" t="n">
-        <v>0.05977502465248108</v>
+        <v>0.1495992988348007</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8710370063781738</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.4681113362312317</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1564265191555023</v>
+        <v>0.1623490899801254</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9247910976409912</v>
       </c>
       <c r="V73" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.468015193939209</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2104870975017548</v>
+        <v>0.208644226193428</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.865077018737793</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.9025940299034119</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1365558803081512</v>
+        <v>0.0014075260842219</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8781068325042725</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.5098603367805481</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1697053015232086</v>
+        <v>0.1356054842472076</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8638088703155518</v>
       </c>
       <c r="V76" t="n">
-        <v>0.436014860868454</v>
+        <v>0.5542995929718018</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1830077171325684</v>
+        <v>0.09579598903656006</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.9310469627380371</v>
       </c>
       <c r="V77" t="n">
-        <v>0.56879723072052</v>
+        <v>0.494204580783844</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1312248706817627</v>
+        <v>0.1908312737941742</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8662998676300049</v>
       </c>
       <c r="V78" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.9053123593330383</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1440401822328568</v>
+        <v>0.001521974452771246</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.865947961807251</v>
       </c>
       <c r="V79" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.5499735474586487</v>
       </c>
       <c r="W79" t="n">
-        <v>0.1667265892028809</v>
+        <v>0.09983982890844345</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8550329208374023</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.554064929485321</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1755693107843399</v>
+        <v>0.09058173000812531</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.9359469413757324</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6487832069396973</v>
+        <v>1.116888165473938</v>
       </c>
       <c r="W81" t="n">
-        <v>0.08246301114559174</v>
+        <v>0.03273972496390343</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5459790229797363</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.9588605761528015</v>
       </c>
       <c r="W82" t="n">
-        <v>0.003543284023180604</v>
+        <v>0.1704711765050888</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5203888416290283</v>
       </c>
       <c r="V83" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.8659774661064148</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01080486364662647</v>
+        <v>0.1194314956665039</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5505440235137939</v>
       </c>
       <c r="V84" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.4775437712669373</v>
       </c>
       <c r="W84" t="n">
-        <v>0.01164758671075106</v>
+        <v>0.005329036619514227</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5167930126190186</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.9109278321266174</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0008690745453350246</v>
+        <v>0.1553422510623932</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5139851570129395</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.9038693904876709</v>
       </c>
       <c r="W86" t="n">
-        <v>0.02040640637278557</v>
+        <v>0.1520097106695175</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5152361392974854</v>
       </c>
       <c r="V87" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.4942360520362854</v>
       </c>
       <c r="W87" t="n">
-        <v>0.04984355717897415</v>
+        <v>0.0004410036781337112</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5140688419342041</v>
       </c>
       <c r="V88" t="n">
-        <v>0.57613205909729</v>
+        <v>0.4860513210296631</v>
       </c>
       <c r="W88" t="n">
-        <v>0.003851842833682895</v>
+        <v>0.0007849814719520509</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5173609256744385</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.9235078692436218</v>
       </c>
       <c r="W89" t="n">
-        <v>0.006616523023694754</v>
+        <v>0.1649553328752518</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5480928421020508</v>
       </c>
       <c r="V90" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4802843332290649</v>
       </c>
       <c r="W90" t="n">
-        <v>0.07203616946935654</v>
+        <v>0.004597994033247232</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5191030502319336</v>
       </c>
       <c r="V91" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.5013651847839355</v>
       </c>
       <c r="W91" t="n">
-        <v>0.006901572458446026</v>
+        <v>0.0003146318776998669</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5701980590820312</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.5012437701225281</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01325612608343363</v>
+        <v>0.004754694178700447</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5171358585357666</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.8994037508964539</v>
       </c>
       <c r="W93" t="n">
-        <v>0.003463542321696877</v>
+        <v>0.1461287438869476</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5141270160675049</v>
       </c>
       <c r="V94" t="n">
-        <v>0.569115161895752</v>
+        <v>0.511896014213562</v>
       </c>
       <c r="W94" t="n">
-        <v>0.003023696132004261</v>
+        <v>4.977369371772511e-06</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.516279935836792</v>
       </c>
       <c r="V95" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.5901216268539429</v>
       </c>
       <c r="W95" t="n">
-        <v>0.00246965978294611</v>
+        <v>0.005452595185488462</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5161271095275879</v>
       </c>
       <c r="V96" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.5335670709609985</v>
       </c>
       <c r="W96" t="n">
-        <v>0.003347529796883464</v>
+        <v>0.0003041522577404976</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5615959167480469</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.9151199460029602</v>
       </c>
       <c r="W97" t="n">
-        <v>9.344011778011918e-05</v>
+        <v>0.124979242682457</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5209190845489502</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.5515985488891602</v>
       </c>
       <c r="W98" t="n">
-        <v>0.007011448498815298</v>
+        <v>0.0009412295185029507</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5193579196929932</v>
       </c>
       <c r="V99" t="n">
-        <v>0.551414966583252</v>
+        <v>0.5167746543884277</v>
       </c>
       <c r="W99" t="n">
-        <v>0.001027654274366796</v>
+        <v>6.673259576928103e-06</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5175590515136719</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.4943805932998657</v>
       </c>
       <c r="W100" t="n">
-        <v>0.01919688284397125</v>
+        <v>0.0005372409359551966</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5158560276031494</v>
       </c>
       <c r="V101" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.4895039796829224</v>
       </c>
       <c r="W101" t="n">
-        <v>0.04381199553608894</v>
+        <v>0.0006944304332137108</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3982889652252197</v>
       </c>
       <c r="V102" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.5542049407958984</v>
       </c>
       <c r="W102" t="n">
-        <v>0.02356505580246449</v>
+        <v>0.02430979162454605</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4413759708404541</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.9032756686210632</v>
       </c>
       <c r="W103" t="n">
-        <v>0.003648456418886781</v>
+        <v>0.2133513242006302</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3934009075164795</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.473710298538208</v>
       </c>
       <c r="W104" t="n">
-        <v>0.05180484429001808</v>
+        <v>0.006449598353356123</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4091591835021973</v>
       </c>
       <c r="V105" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.5040808320045471</v>
       </c>
       <c r="W105" t="n">
-        <v>0.05058033391833305</v>
+        <v>0.009010119363665581</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3874640464782715</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5334235429763794</v>
       </c>
       <c r="W106" t="n">
-        <v>0.002385588828474283</v>
+        <v>0.0213041752576828</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3893029689788818</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.4911656975746155</v>
       </c>
       <c r="W107" t="n">
-        <v>6.354996457957895e-07</v>
+        <v>0.01037601567804813</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3887360095977783</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.4855413436889648</v>
       </c>
       <c r="W108" t="n">
-        <v>0.01392887439578772</v>
+        <v>0.009371272288262844</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.4438889026641846</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.9253032803535461</v>
       </c>
       <c r="W109" t="n">
-        <v>0.03980503976345062</v>
+        <v>0.2317598015069962</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3971397876739502</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.5538204312324524</v>
       </c>
       <c r="W110" t="n">
-        <v>0.00151113688480109</v>
+        <v>0.02454882487654686</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3899040222167969</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.4983143210411072</v>
       </c>
       <c r="W111" t="n">
-        <v>0.004054458346217871</v>
+        <v>0.01175279263406992</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3966200351715088</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.4896254539489746</v>
       </c>
       <c r="W112" t="n">
-        <v>0.02341961488127708</v>
+        <v>0.008650007657706738</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3995339870452881</v>
       </c>
       <c r="V113" t="n">
-        <v>0.56818687915802</v>
+        <v>0.48917555809021</v>
       </c>
       <c r="W113" t="n">
-        <v>0.02844379842281342</v>
+        <v>0.008035611361265182</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3975660800933838</v>
       </c>
       <c r="V114" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.4806108474731445</v>
       </c>
       <c r="W114" t="n">
-        <v>0.05144228041172028</v>
+        <v>0.006896433420479298</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.4135298728942871</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.8745343089103699</v>
       </c>
       <c r="W115" t="n">
-        <v>0.001972234109416604</v>
+        <v>0.2125250846147537</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.400393009185791</v>
       </c>
       <c r="V116" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.5173310041427612</v>
       </c>
       <c r="W116" t="n">
-        <v>0.05923618003726006</v>
+        <v>0.01367449481040239</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3930392265319824</v>
       </c>
       <c r="V117" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.4806197285652161</v>
       </c>
       <c r="W117" t="n">
-        <v>0.07157476991415024</v>
+        <v>0.007670344319194555</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4020788669586182</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.9801990389823914</v>
       </c>
       <c r="W118" t="n">
-        <v>0.02668008208274841</v>
+        <v>0.3342229425907135</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3890740871429443</v>
       </c>
       <c r="V119" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.8773212432861328</v>
       </c>
       <c r="W119" t="n">
-        <v>0.004837817046791315</v>
+        <v>0.2383852899074554</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4093010425567627</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.9710032939910889</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0009276118944399059</v>
+        <v>0.3155094087123871</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3888108730316162</v>
       </c>
       <c r="V121" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.473210871219635</v>
       </c>
       <c r="W121" t="n">
-        <v>0.002191170584410429</v>
+        <v>0.007123359479010105</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8898811340332031</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.4767069816589355</v>
       </c>
       <c r="W122" t="n">
-        <v>0.2062406241893768</v>
+        <v>0.170712873339653</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.930156946182251</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.5331555604934692</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2444369494915009</v>
+        <v>0.1576101034879684</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8893911838531494</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.4910306334495544</v>
       </c>
       <c r="W124" t="n">
-        <v>0.05398009344935417</v>
+        <v>0.1586911231279373</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.9170880317687988</v>
       </c>
       <c r="V125" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.9017091393470764</v>
       </c>
       <c r="W125" t="n">
-        <v>0.09012790769338608</v>
+        <v>0.0002365103282500058</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8810000419616699</v>
       </c>
       <c r="V126" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.9425143003463745</v>
       </c>
       <c r="W126" t="n">
-        <v>0.00476476876065135</v>
+        <v>0.003784003900364041</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.872974157333374</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.5334193110466003</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1220971345901489</v>
+        <v>0.1152974963188171</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8642890453338623</v>
       </c>
       <c r="V128" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.9017518162727356</v>
       </c>
       <c r="W128" t="n">
-        <v>0.235949918627739</v>
+        <v>0.001403459231369197</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.9240682125091553</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.8811151385307312</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1243551596999168</v>
+        <v>0.001844966551288962</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8903520107269287</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.5334546566009521</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1760579198598862</v>
+        <v>0.1273757219314575</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8618810176849365</v>
       </c>
       <c r="V131" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.9944385886192322</v>
       </c>
       <c r="W131" t="n">
-        <v>0.0558081679046154</v>
+        <v>0.01757150888442993</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8741660118103027</v>
       </c>
       <c r="V132" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.9132344722747803</v>
       </c>
       <c r="W132" t="n">
-        <v>0.2419070899486542</v>
+        <v>0.001526344567537308</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.9340801239013672</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.9419050216674805</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1849517375230789</v>
+        <v>6.122902414062992e-05</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8645470142364502</v>
       </c>
       <c r="V134" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.4895146489143372</v>
       </c>
       <c r="W134" t="n">
-        <v>0.08314867317676544</v>
+        <v>0.1406492739915848</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8696110248565674</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.5330460667610168</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1687363535165787</v>
+        <v>0.1132759675383568</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.863724946975708</v>
       </c>
       <c r="V136" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.9426271319389343</v>
       </c>
       <c r="W136" t="n">
-        <v>0.05876824632287025</v>
+        <v>0.00622555473819375</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.9185371398925781</v>
       </c>
       <c r="V137" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.9240447878837585</v>
       </c>
       <c r="W137" t="n">
-        <v>0.2324836403131485</v>
+        <v>3.03341857943451e-05</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8683569431304932</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.9026468396186829</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1869137287139893</v>
+        <v>0.001175796962343156</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8689360618591309</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.4808657765388489</v>
       </c>
       <c r="W139" t="n">
-        <v>0.03391389176249504</v>
+        <v>0.1505985409021378</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8626401424407959</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.5333462953567505</v>
       </c>
       <c r="W140" t="n">
-        <v>0.09552927315235138</v>
+        <v>0.1084344387054443</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.9528257846832275</v>
       </c>
       <c r="V141" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.4958473443984985</v>
       </c>
       <c r="W141" t="n">
-        <v>0.111008957028389</v>
+        <v>0.2088292986154556</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5565669536590576</v>
       </c>
       <c r="V142" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.9439412355422974</v>
       </c>
       <c r="W142" t="n">
-        <v>0.003643460804596543</v>
+        <v>0.1500588357448578</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5212299823760986</v>
       </c>
       <c r="V143" t="n">
-        <v>0.551541268825531</v>
+        <v>0.8998572826385498</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0009187741088680923</v>
+        <v>0.1433586329221725</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5194931030273438</v>
       </c>
       <c r="V144" t="n">
-        <v>0.504918098449707</v>
+        <v>0.5036836862564087</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0002124307648045942</v>
+        <v>0.0002499376714695245</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5185449123382568</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.9589504599571228</v>
       </c>
       <c r="W145" t="n">
-        <v>0.006809094455093145</v>
+        <v>0.193957045674324</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5757219791412354</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.9104796051979065</v>
       </c>
       <c r="W146" t="n">
-        <v>0.009994748048484325</v>
+        <v>0.1120626702904701</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5377781391143799</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.5045684576034546</v>
       </c>
       <c r="W147" t="n">
-        <v>0.001284277415834367</v>
+        <v>0.001102882903069258</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5481269359588623</v>
       </c>
       <c r="V148" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.4946967363357544</v>
       </c>
       <c r="W148" t="n">
-        <v>0.006357524544000626</v>
+        <v>0.002854786347597837</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5177240371704102</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.5335441827774048</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0009762793779373169</v>
+        <v>0.0002502769930288196</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5192160606384277</v>
       </c>
       <c r="V150" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.9141906499862671</v>
       </c>
       <c r="W150" t="n">
-        <v>0.04603708162903786</v>
+        <v>0.1560049206018448</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5181510448455811</v>
       </c>
       <c r="V151" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.4806631207466125</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0192647110670805</v>
+        <v>0.001405344461090863</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5178511142730713</v>
       </c>
       <c r="V152" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.9423162341117859</v>
       </c>
       <c r="W152" t="n">
-        <v>0.001212288509123027</v>
+        <v>0.1801706403493881</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5174961090087891</v>
       </c>
       <c r="V153" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.9601544141769409</v>
       </c>
       <c r="W153" t="n">
-        <v>0.00670331995934248</v>
+        <v>0.1959463804960251</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5161020755767822</v>
       </c>
       <c r="V154" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.9233642220497131</v>
       </c>
       <c r="W154" t="n">
-        <v>0.002772835781797767</v>
+        <v>0.1658624559640884</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5209999084472656</v>
       </c>
       <c r="V155" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.9990096688270569</v>
       </c>
       <c r="W155" t="n">
-        <v>0.007221926469355822</v>
+        <v>0.228493332862854</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5183041095733643</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.8999397754669189</v>
       </c>
       <c r="W156" t="n">
-        <v>0.006769911851733923</v>
+        <v>0.1456457823514938</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5722038745880127</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4707935154438019</v>
+        <v>1.005186915397644</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0102840606123209</v>
+        <v>0.1874743103981018</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5207531452178955</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.4900495409965515</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0874592587351799</v>
+        <v>0.0009427113109268248</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5183389186859131</v>
       </c>
       <c r="V159" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.4857879877090454</v>
       </c>
       <c r="W159" t="n">
-        <v>0.01202887762337923</v>
+        <v>0.00105956313200295</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5177900791168213</v>
       </c>
       <c r="V160" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.4808487296104431</v>
       </c>
       <c r="W160" t="n">
-        <v>0.05574572458863258</v>
+        <v>0.001364663359709084</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5204329490661621</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.5333091020584106</v>
       </c>
       <c r="W161" t="n">
-        <v>0.01907724887132645</v>
+        <v>0.0001657953107496724</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3949730396270752</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.9478207230567932</v>
       </c>
       <c r="W162" t="n">
-        <v>0.05305042117834091</v>
+        <v>0.3056405484676361</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3918559551239014</v>
       </c>
       <c r="V163" t="n">
-        <v>0.624285101890564</v>
+        <v>0.4946535229682922</v>
       </c>
       <c r="W163" t="n">
-        <v>0.05402330681681633</v>
+        <v>0.01056734006851912</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3929159641265869</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.4806662201881409</v>
       </c>
       <c r="W164" t="n">
-        <v>0.003870673011988401</v>
+        <v>0.007700107526034117</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3946950435638428</v>
       </c>
       <c r="V165" t="n">
-        <v>0.390147477388382</v>
+        <v>0.5344499945640564</v>
       </c>
       <c r="W165" t="n">
-        <v>2.068035792035516e-05</v>
+        <v>0.01953144557774067</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3915760517120361</v>
       </c>
       <c r="V166" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.5336273908615112</v>
       </c>
       <c r="W166" t="n">
-        <v>0.1110863462090492</v>
+        <v>0.02017858251929283</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3924260139465332</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.9409240484237671</v>
       </c>
       <c r="W167" t="n">
-        <v>0.07005078345537186</v>
+        <v>0.3008500933647156</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3906009197235107</v>
       </c>
       <c r="V168" t="n">
-        <v>0.435836523771286</v>
+        <v>0.5114597678184509</v>
       </c>
       <c r="W168" t="n">
-        <v>0.002046259818598628</v>
+        <v>0.01460686139762402</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.4150099754333496</v>
       </c>
       <c r="V169" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.4810682535171509</v>
       </c>
       <c r="W169" t="n">
-        <v>0.0189338605850935</v>
+        <v>0.004363696090877056</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3944389820098877</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.914586067199707</v>
       </c>
       <c r="W170" t="n">
-        <v>0.06377951800823212</v>
+        <v>0.2705529928207397</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3917441368103027</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.5543273091316223</v>
       </c>
       <c r="W171" t="n">
-        <v>0.03096941113471985</v>
+        <v>0.02643328718841076</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3982717990875244</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.5039330124855042</v>
       </c>
       <c r="W172" t="n">
-        <v>0.001404776936396956</v>
+        <v>0.01116429176181555</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3944239616394043</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.8958137631416321</v>
       </c>
       <c r="W173" t="n">
-        <v>0.006648113485425711</v>
+        <v>0.251391738653183</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3925468921661377</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.5204506516456604</v>
       </c>
       <c r="W174" t="n">
-        <v>0.05118698254227638</v>
+        <v>0.01635937206447124</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.4468681812286377</v>
       </c>
       <c r="V175" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.8810060620307922</v>
       </c>
       <c r="W175" t="n">
-        <v>0.01171471271663904</v>
+        <v>0.1884756982326508</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3943519592285156</v>
       </c>
       <c r="V176" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.4687371850013733</v>
       </c>
       <c r="W176" t="n">
-        <v>0.08388501405715942</v>
+        <v>0.005533162038773298</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4007530212402344</v>
       </c>
       <c r="V177" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.5045276284217834</v>
       </c>
       <c r="W177" t="n">
-        <v>0.110049307346344</v>
+        <v>0.01076916884630919</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3922600746154785</v>
       </c>
       <c r="V178" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.9481399059295654</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0001884307857835665</v>
+        <v>0.3090023994445801</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3929181098937988</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.9943713545799255</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0002114190137945116</v>
+        <v>0.3617460131645203</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3919548988342285</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.9005750417709351</v>
       </c>
       <c r="W180" t="n">
-        <v>0.07905188202857971</v>
+        <v>0.2586944401264191</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.5371260643005371</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.4988799095153809</v>
       </c>
       <c r="W181" t="n">
-        <v>0.007565289735794067</v>
+        <v>0.001462768297642469</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8831219673156738</v>
       </c>
       <c r="V182" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.4732106924057007</v>
       </c>
       <c r="W182" t="n">
-        <v>0.1887044161558151</v>
+        <v>0.168027251958847</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9107179641723633</v>
       </c>
       <c r="V183" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.5045000910758972</v>
       </c>
       <c r="W183" t="n">
-        <v>0.0645538866519928</v>
+        <v>0.1650129556655884</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8851139545440674</v>
       </c>
       <c r="V184" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.5185535550117493</v>
       </c>
       <c r="W184" t="n">
-        <v>0.05028526484966278</v>
+        <v>0.1343665271997452</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.9381999969482422</v>
       </c>
       <c r="V185" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.4939869046211243</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1313170343637466</v>
+        <v>0.197325274348259</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8697528839111328</v>
       </c>
       <c r="V186" t="n">
-        <v>0.473088413476944</v>
+        <v>0.6223776340484619</v>
       </c>
       <c r="W186" t="n">
-        <v>0.1573427021503448</v>
+        <v>0.06119451299309731</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8741109371185303</v>
       </c>
       <c r="V187" t="n">
-        <v>0.624763011932373</v>
+        <v>0.5550446510314941</v>
       </c>
       <c r="W187" t="n">
-        <v>0.06217438727617264</v>
+        <v>0.101803295314312</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8674931526184082</v>
       </c>
       <c r="V188" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.9097861051559448</v>
       </c>
       <c r="W188" t="n">
-        <v>0.09483787417411804</v>
+        <v>0.00178869382943958</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.9247879981994629</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.9380462169647217</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1383005380630493</v>
+        <v>0.0001757803693180904</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9001109600067139</v>
       </c>
       <c r="V190" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.8806543946266174</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1838045716285706</v>
+        <v>0.0003785579465329647</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8835029602050781</v>
       </c>
       <c r="V191" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.923008918762207</v>
       </c>
       <c r="W191" t="n">
-        <v>0.06653959304094315</v>
+        <v>0.001560720731504261</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8653068542480469</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.9085004925727844</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1842285990715027</v>
+        <v>0.001865690341219306</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.9404909610748291</v>
       </c>
       <c r="V193" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.5337653160095215</v>
       </c>
       <c r="W193" t="n">
-        <v>0.08264043182134628</v>
+        <v>0.1654257476329803</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8699789047241211</v>
       </c>
       <c r="V194" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.4892541170120239</v>
       </c>
       <c r="W194" t="n">
-        <v>0.002621357794851065</v>
+        <v>0.1449513584375381</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8793909549713135</v>
       </c>
       <c r="V195" t="n">
-        <v>0.630542516708374</v>
+        <v>0.5539694428443909</v>
       </c>
       <c r="W195" t="n">
-        <v>0.06192554533481598</v>
+        <v>0.1058991625905037</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8919639587402344</v>
       </c>
       <c r="V196" t="n">
-        <v>0.458252340555191</v>
+        <v>0.4681130647659302</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1881057620048523</v>
+        <v>0.1796495765447617</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.9183640480041504</v>
       </c>
       <c r="V197" t="n">
-        <v>0.476378470659256</v>
+        <v>0.8737200498580933</v>
       </c>
       <c r="W197" t="n">
-        <v>0.1953512579202652</v>
+        <v>0.001993086654692888</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8713431358337402</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.9284700751304626</v>
       </c>
       <c r="W198" t="n">
-        <v>0.061109259724617</v>
+        <v>0.003263487247750163</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8719580173492432</v>
       </c>
       <c r="V199" t="n">
-        <v>0.436027318239212</v>
+        <v>0.9345707297325134</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1900355815887451</v>
+        <v>0.00392035162076354</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8627541065216064</v>
       </c>
       <c r="V200" t="n">
-        <v>0.618610143661499</v>
+        <v>0.471809446811676</v>
       </c>
       <c r="W200" t="n">
-        <v>0.05960627645254135</v>
+        <v>0.152837723493576</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9472179412841797</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.8999178409576416</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1541526913642883</v>
+        <v>0.002237299457192421</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5189359188079834</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.472863495349884</v>
       </c>
       <c r="W202" t="n">
-        <v>0.01140091009438038</v>
+        <v>0.002122668316587806</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5181171894073486</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.9245856404304504</v>
       </c>
       <c r="W203" t="n">
-        <v>0.009729395620524883</v>
+        <v>0.1652165949344635</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5348649024963379</v>
       </c>
       <c r="V204" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.9193681478500366</v>
       </c>
       <c r="W204" t="n">
-        <v>0.005982919596135616</v>
+        <v>0.14784274995327</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5208451747894287</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.9488797187805176</v>
       </c>
       <c r="W205" t="n">
-        <v>0.002311236225068569</v>
+        <v>0.1832135766744614</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5730059146881104</v>
       </c>
       <c r="V206" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.9254303574562073</v>
       </c>
       <c r="W206" t="n">
-        <v>0.03768722340464592</v>
+        <v>0.1242029890418053</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5210928916931152</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.4903797507286072</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0007338106515817344</v>
+        <v>0.000943297054618597</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5159530639648438</v>
       </c>
       <c r="V208" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.4848566055297852</v>
       </c>
       <c r="W208" t="n">
-        <v>0.002737457631155849</v>
+        <v>0.0009669897262938321</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5145530700683594</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.4876989126205444</v>
       </c>
       <c r="W209" t="n">
-        <v>0.003630215069279075</v>
+        <v>0.0007211457705125213</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5194931030273438</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.533168613910675</v>
       </c>
       <c r="W210" t="n">
-        <v>0.02363266795873642</v>
+        <v>0.0001870195992523804</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5819170475006104</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.4747077822685242</v>
       </c>
       <c r="W211" t="n">
-        <v>0.006428094580769539</v>
+        <v>0.01149382628500462</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5236279964447021</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.4898066520690918</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01018702797591686</v>
+        <v>0.001143883331678808</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5228419303894043</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.9046119451522827</v>
       </c>
       <c r="W213" t="n">
-        <v>0.002318632323294878</v>
+        <v>0.1457483470439911</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5223019123077393</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.9334661364555359</v>
       </c>
       <c r="W214" t="n">
-        <v>0.0003234125615563244</v>
+        <v>0.1690560132265091</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5232009887695312</v>
       </c>
       <c r="V215" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.4797946214675903</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01034183707088232</v>
+        <v>0.001884112716652453</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5397770404815674</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.8932474851608276</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0009649371495470405</v>
+        <v>0.1249413564801216</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5219919681549072</v>
       </c>
       <c r="V217" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.4808165431022644</v>
       </c>
       <c r="W217" t="n">
-        <v>0.00437758257612586</v>
+        <v>0.001695415587164462</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.520226001739502</v>
       </c>
       <c r="V218" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.5143527984619141</v>
       </c>
       <c r="W218" t="n">
-        <v>0.004439994692802429</v>
+        <v>3.449451833148487e-05</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.524238109588623</v>
       </c>
       <c r="V219" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.5329495668411255</v>
       </c>
       <c r="W219" t="n">
-        <v>0.003341855714097619</v>
+        <v>7.588948938064277e-05</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5232629776000977</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.9036059975624084</v>
       </c>
       <c r="W220" t="n">
-        <v>0.004316955339163542</v>
+        <v>0.1446608155965805</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.522845983505249</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.9944741129875183</v>
       </c>
       <c r="W221" t="n">
-        <v>0.002490179147571325</v>
+        <v>0.2224330902099609</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4495029449462891</v>
       </c>
       <c r="V222" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.4804591536521912</v>
       </c>
       <c r="W222" t="n">
-        <v>0.03850754350423813</v>
+        <v>0.0009582868660800159</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.391995906829834</v>
       </c>
       <c r="V223" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.4973498582839966</v>
       </c>
       <c r="W223" t="n">
-        <v>0.05243951454758644</v>
+        <v>0.01109945494681597</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3926150798797607</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.5332631468772888</v>
       </c>
       <c r="W224" t="n">
-        <v>0.03125006705522537</v>
+        <v>0.01978187821805477</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3920629024505615</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.5753599405288696</v>
       </c>
       <c r="W225" t="n">
-        <v>0.004302958492189646</v>
+        <v>0.03359780460596085</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3935379981994629</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.468338668346405</v>
       </c>
       <c r="W226" t="n">
-        <v>0.05334841832518578</v>
+        <v>0.005595140159130096</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3970820903778076</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.8718234896659851</v>
       </c>
       <c r="W227" t="n">
-        <v>0.02391506545245647</v>
+        <v>0.2253793925046921</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4223220348358154</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.5185808539390564</v>
       </c>
       <c r="W228" t="n">
-        <v>0.04830218479037285</v>
+        <v>0.009265759959816933</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3967490196228027</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.9220517873764038</v>
       </c>
       <c r="W229" t="n">
-        <v>0.001542557612992823</v>
+        <v>0.2759430110454559</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.393441915512085</v>
       </c>
       <c r="V230" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.5518525838851929</v>
       </c>
       <c r="W230" t="n">
-        <v>0.05182600766420364</v>
+        <v>0.02509393915534019</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3924939632415771</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.5042760372161865</v>
       </c>
       <c r="W231" t="n">
-        <v>0.006631425581872463</v>
+        <v>0.01249523181468248</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4037880897521973</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.4964028000831604</v>
       </c>
       <c r="W232" t="n">
-        <v>0.00291287456639111</v>
+        <v>0.008577484637498856</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3945779800415039</v>
       </c>
       <c r="V233" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.7117061018943787</v>
       </c>
       <c r="W233" t="n">
-        <v>0.1150487288832664</v>
+        <v>0.1005702465772629</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3974549770355225</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.8961910605430603</v>
       </c>
       <c r="W234" t="n">
-        <v>0.05011293664574623</v>
+        <v>0.2487376779317856</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3953168392181396</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5046579837799072</v>
       </c>
       <c r="W235" t="n">
-        <v>0.006335890386253595</v>
+        <v>0.01195548567920923</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3963639736175537</v>
       </c>
       <c r="V236" t="n">
-        <v>0.816550612449646</v>
+        <v>0.494608998298645</v>
       </c>
       <c r="W236" t="n">
-        <v>0.1765568107366562</v>
+        <v>0.009652084670960903</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3934199810028076</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.4798836708068848</v>
       </c>
       <c r="W237" t="n">
-        <v>0.003818477969616652</v>
+        <v>0.007475969847291708</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3889632225036621</v>
       </c>
       <c r="V238" t="n">
-        <v>0.473930835723877</v>
+        <v>0.8926805257797241</v>
       </c>
       <c r="W238" t="n">
-        <v>0.007219495251774788</v>
+        <v>0.2537311315536499</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3925678730010986</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.9042462110519409</v>
       </c>
       <c r="W239" t="n">
-        <v>0.01240471657365561</v>
+        <v>0.2618147134780884</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3856990337371826</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.5331265926361084</v>
       </c>
       <c r="W240" t="n">
-        <v>0.003193413838744164</v>
+        <v>0.02173488587141037</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4038019180297852</v>
       </c>
       <c r="V241" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.4930965900421143</v>
       </c>
       <c r="W241" t="n">
-        <v>0.0001733548124320805</v>
+        <v>0.007973538711667061</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8976230621337891</v>
       </c>
       <c r="V242" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4767195582389832</v>
       </c>
       <c r="W242" t="n">
-        <v>0.187885120511055</v>
+        <v>0.1771597564220428</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>1.057010889053345</v>
       </c>
       <c r="V243" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.9024848937988281</v>
       </c>
       <c r="W243" t="n">
-        <v>0.1574556678533554</v>
+        <v>0.02387828379869461</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>1.028808116912842</v>
       </c>
       <c r="V244" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.5516006946563721</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1639605760574341</v>
+        <v>0.2277269214391708</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.9378058910369873</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.5343783497810364</v>
       </c>
       <c r="W245" t="n">
-        <v>0.09728266298770905</v>
+        <v>0.1627537757158279</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8718359470367432</v>
       </c>
       <c r="V246" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.4928774833679199</v>
       </c>
       <c r="W246" t="n">
-        <v>0.06389240175485611</v>
+        <v>0.1436095237731934</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8758888244628906</v>
       </c>
       <c r="V247" t="n">
-        <v>0.551807165145874</v>
+        <v>0.4825547337532043</v>
       </c>
       <c r="W247" t="n">
-        <v>0.1050289198756218</v>
+        <v>0.1547117084264755</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.904900074005127</v>
       </c>
       <c r="V248" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.514147162437439</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2753218412399292</v>
+        <v>0.1526878327131271</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8863489627838135</v>
       </c>
       <c r="V249" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.4678677916526794</v>
       </c>
       <c r="W249" t="n">
-        <v>0.1768376529216766</v>
+        <v>0.1751264929771423</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8721060752868652</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.9985181093215942</v>
       </c>
       <c r="W250" t="n">
-        <v>0.09003065526485443</v>
+        <v>0.01598000153899193</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8925979137420654</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.9384865760803223</v>
       </c>
       <c r="W251" t="n">
-        <v>0.06194684654474258</v>
+        <v>0.002105769235640764</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9335379600524902</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.4899934530258179</v>
       </c>
       <c r="W252" t="n">
-        <v>0.225687250494957</v>
+        <v>0.1967317312955856</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8832290172576904</v>
       </c>
       <c r="V253" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.592244029045105</v>
       </c>
       <c r="W253" t="n">
-        <v>0.0215066634118557</v>
+        <v>0.08467226475477219</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8852918148040771</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.4806473851203918</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1048278883099556</v>
+        <v>0.1637371182441711</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8766140937805176</v>
       </c>
       <c r="V255" t="n">
-        <v>0.505409836769104</v>
+        <v>0.5038443207740784</v>
       </c>
       <c r="W255" t="n">
-        <v>0.1377926021814346</v>
+        <v>0.1389573067426682</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9333188533782959</v>
       </c>
       <c r="V256" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.9053826332092285</v>
       </c>
       <c r="W256" t="n">
-        <v>0.225396141409874</v>
+        <v>0.0007804323686286807</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8862361907958984</v>
       </c>
       <c r="V257" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.4801999926567078</v>
       </c>
       <c r="W257" t="n">
-        <v>0.07219360768795013</v>
+        <v>0.1648653894662857</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8687598705291748</v>
       </c>
       <c r="V258" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.9266884922981262</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1621688306331635</v>
+        <v>0.003355725202709436</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8739669322967529</v>
       </c>
       <c r="V259" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.4920847415924072</v>
       </c>
       <c r="W259" t="n">
-        <v>0.06498858332633972</v>
+        <v>0.1458340138196945</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9231131076812744</v>
       </c>
       <c r="V260" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.4688369035720825</v>
       </c>
       <c r="W260" t="n">
-        <v>0.03469695523381233</v>
+        <v>0.2063668668270111</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8724839687347412</v>
       </c>
       <c r="V261" t="n">
-        <v>0.812067985534668</v>
+        <v>0.4691095352172852</v>
       </c>
       <c r="W261" t="n">
-        <v>0.003650091122835875</v>
+        <v>0.1627109348773956</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5275061130523682</v>
       </c>
       <c r="V262" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.5119519829750061</v>
       </c>
       <c r="W262" t="n">
-        <v>0.002359488513320684</v>
+        <v>0.0002419309603283182</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.526745080947876</v>
       </c>
       <c r="V263" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.9150267243385315</v>
       </c>
       <c r="W263" t="n">
-        <v>0.08132299035787582</v>
+        <v>0.1507626324892044</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5245459079742432</v>
       </c>
       <c r="V264" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.533263623714447</v>
       </c>
       <c r="W264" t="n">
-        <v>0.04956879839301109</v>
+        <v>7.599857053719461e-05</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5761501789093018</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.5533661842346191</v>
       </c>
       <c r="W265" t="n">
-        <v>0.005164401605725288</v>
+        <v>0.0005191104137338698</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5269138813018799</v>
       </c>
       <c r="V266" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.4712849855422974</v>
       </c>
       <c r="W266" t="n">
-        <v>0.002129115629941225</v>
+        <v>0.003094573970884085</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.523237943649292</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.9048056602478027</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01790407486259937</v>
+        <v>0.1455939263105392</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5270938873291016</v>
       </c>
       <c r="V268" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.8930229544639587</v>
       </c>
       <c r="W268" t="n">
-        <v>0.08390124142169952</v>
+        <v>0.1339040845632553</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5244748592376709</v>
       </c>
       <c r="V269" t="n">
-        <v>0.480756551027298</v>
+        <v>0.5043455362319946</v>
       </c>
       <c r="W269" t="n">
-        <v>0.00191129045560956</v>
+        <v>0.0004051896394230425</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5638120174407959</v>
       </c>
       <c r="V270" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.4644688367843628</v>
       </c>
       <c r="W270" t="n">
-        <v>2.370816764596384e-05</v>
+        <v>0.009869067929685116</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5228500366210938</v>
       </c>
       <c r="V271" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.4799607992172241</v>
       </c>
       <c r="W271" t="n">
-        <v>0.003189312759786844</v>
+        <v>0.001839486649259925</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5285820960998535</v>
       </c>
       <c r="V272" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.4816988110542297</v>
       </c>
       <c r="W272" t="n">
-        <v>0.08676037192344666</v>
+        <v>0.002198042348027229</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5226919651031494</v>
       </c>
       <c r="V273" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.4797985553741455</v>
       </c>
       <c r="W273" t="n">
-        <v>0.0002570435171946883</v>
+        <v>0.001839844626374543</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5441920757293701</v>
       </c>
       <c r="V274" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4823526740074158</v>
       </c>
       <c r="W274" t="n">
-        <v>0.07536616176366806</v>
+        <v>0.003824111539870501</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5239048004150391</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.4986110925674438</v>
       </c>
       <c r="W275" t="n">
-        <v>0.007704067509621382</v>
+        <v>0.0006397716351784766</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5251021385192871</v>
       </c>
       <c r="V276" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.4929043650627136</v>
       </c>
       <c r="W276" t="n">
-        <v>0.007934950292110443</v>
+        <v>0.00103669660165906</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5269849300384521</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.8837339282035828</v>
       </c>
       <c r="W277" t="n">
-        <v>0.005353418178856373</v>
+        <v>0.1272698491811752</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5230939388275146</v>
       </c>
       <c r="V278" t="n">
-        <v>0.474732518196106</v>
+        <v>0.5715996623039246</v>
       </c>
       <c r="W278" t="n">
-        <v>0.002338826889172196</v>
+        <v>0.0023528051096946</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5250399112701416</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.4772248864173889</v>
       </c>
       <c r="W279" t="n">
-        <v>0.001905832556076348</v>
+        <v>0.002286276547238231</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5223870277404785</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.4899493455886841</v>
       </c>
       <c r="W280" t="n">
-        <v>0.004640241619199514</v>
+        <v>0.001052203238941729</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5736370086669922</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.5336861610412598</v>
       </c>
       <c r="W281" t="n">
-        <v>0.01309293136000633</v>
+        <v>0.00159607024397701</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4076831340789795</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.4954946637153625</v>
       </c>
       <c r="W282" t="n">
-        <v>0.0007840348989702761</v>
+        <v>0.007710864767432213</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3997468948364258</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.5330430865287781</v>
       </c>
       <c r="W283" t="n">
-        <v>0.001788116642273962</v>
+        <v>0.01776787452399731</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.399083137512207</v>
       </c>
       <c r="V284" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.4899841547012329</v>
       </c>
       <c r="W284" t="n">
-        <v>0.003493613563477993</v>
+        <v>0.008262994699180126</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3986120223999023</v>
       </c>
       <c r="V285" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.4688140749931335</v>
       </c>
       <c r="W285" t="n">
-        <v>0.06007162481546402</v>
+        <v>0.004928328096866608</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.400886058807373</v>
       </c>
       <c r="V286" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.879630982875824</v>
       </c>
       <c r="W286" t="n">
-        <v>0.001205435139127076</v>
+        <v>0.229196697473526</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.462446928024292</v>
       </c>
       <c r="V287" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.5639700293540955</v>
       </c>
       <c r="W287" t="n">
-        <v>0.07248909771442413</v>
+        <v>0.01030694041401148</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3990721702575684</v>
       </c>
       <c r="V288" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.516681969165802</v>
       </c>
       <c r="W288" t="n">
-        <v>0.1741605699062347</v>
+        <v>0.01383206434547901</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.3987228870391846</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.49550461769104</v>
       </c>
       <c r="W289" t="n">
-        <v>0.01377051509916782</v>
+        <v>0.009366703219711781</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3932399749755859</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.5334212183952332</v>
       </c>
       <c r="W290" t="n">
-        <v>0.02522403001785278</v>
+        <v>0.0196507815271616</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3989100456237793</v>
       </c>
       <c r="V291" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.8742591738700867</v>
       </c>
       <c r="W291" t="n">
-        <v>0.06740648299455643</v>
+        <v>0.2259567975997925</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4036099910736084</v>
       </c>
       <c r="V292" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4810400605201721</v>
       </c>
       <c r="W292" t="n">
-        <v>0.02494311332702637</v>
+        <v>0.005995415616780519</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4224691390991211</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.8817862272262573</v>
       </c>
       <c r="W293" t="n">
-        <v>0.0171812865883112</v>
+        <v>0.2109721899032593</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3974320888519287</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.5538372397422791</v>
       </c>
       <c r="W294" t="n">
-        <v>0.003631461411714554</v>
+        <v>0.02446257136762142</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3953700065612793</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.4899573922157288</v>
       </c>
       <c r="W295" t="n">
-        <v>0.02495394088327885</v>
+        <v>0.00894677359610796</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3964071273803711</v>
       </c>
       <c r="V296" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.5173447132110596</v>
       </c>
       <c r="W296" t="n">
-        <v>0.001569240004755557</v>
+        <v>0.01462589949369431</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4131231307983398</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.4836779832839966</v>
       </c>
       <c r="W297" t="n">
-        <v>0.001973774982616305</v>
+        <v>0.00497798714786768</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.39910888671875</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.8659026622772217</v>
       </c>
       <c r="W298" t="n">
-        <v>0.001361791393719614</v>
+        <v>0.217896431684494</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3992679119110107</v>
       </c>
       <c r="V299" t="n">
-        <v>0.43533855676651</v>
+        <v>0.5330612659454346</v>
       </c>
       <c r="W299" t="n">
-        <v>0.001301091397181153</v>
+        <v>0.01790066249668598</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3987858295440674</v>
       </c>
       <c r="V300" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.9549495577812195</v>
       </c>
       <c r="W300" t="n">
-        <v>0.1741358935832977</v>
+        <v>0.3093180954456329</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3993129730224609</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.4805532097816467</v>
       </c>
       <c r="W301" t="n">
-        <v>0.05131868273019791</v>
+        <v>0.00659997621551156</v>
       </c>
     </row>
     <row r="302" spans="1:23">
